--- a/excel-parser/excel-table/table.xlsx
+++ b/excel-parser/excel-table/table.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CDF72D-3D27-4787-ADDA-2665575F9D2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DDCA3B-0971-4E2F-859E-7264A3190272}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="5">
   <si>
     <t>Kirill Kostev</t>
   </si>
@@ -28,19 +28,13 @@
     <t>X</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Alexander Kiselev</t>
-  </si>
-  <si>
     <t>Eduard Ansperi</t>
   </si>
   <si>
-    <t xml:space="preserve">X </t>
+    <t xml:space="preserve">Ranno Värk </t>
   </si>
   <si>
-    <t xml:space="preserve">Tauri Taal </t>
+    <t>Sören Sau</t>
   </si>
 </sst>
 </file>
@@ -367,7 +361,7 @@
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,32 +370,32 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2">
-        <v>11</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="2">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
+      <c r="E1" s="2">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2">
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2">
-        <v>11</v>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="J1" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1" s="2">
         <v>10</v>
@@ -412,23 +406,23 @@
       <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="2">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2">
-        <v>10</v>
+      <c r="N1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="P1" s="2">
         <v>10</v>
       </c>
       <c r="Q1" s="2">
-        <v>11</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="R1" s="2">
+        <v>11</v>
       </c>
       <c r="S1" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>1</v>
@@ -443,140 +437,140 @@
         <v>10</v>
       </c>
       <c r="X1" s="2">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>4</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>1</v>
+      <c r="AA1" s="2">
+        <v>10</v>
       </c>
       <c r="AB1" s="2">
-        <v>10</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>10</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="2">
-        <v>10</v>
+      <c r="AF1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2">
-        <v>11</v>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
+      <c r="H2" s="2">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2">
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2">
+        <v>11</v>
+      </c>
+      <c r="O2" s="2">
+        <v>10</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" s="2">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>4</v>
+      </c>
+      <c r="S2" s="2">
+        <v>11</v>
+      </c>
+      <c r="T2" s="2">
+        <v>10</v>
+      </c>
+      <c r="U2" s="2">
+        <v>11</v>
+      </c>
+      <c r="V2" s="2">
+        <v>4</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="2">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>11</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>11</v>
+      <c r="Y2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="AE2" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -588,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2">
         <v>10</v>
@@ -596,14 +590,14 @@
       <c r="I3" s="2">
         <v>10</v>
       </c>
-      <c r="J3" s="2">
-        <v>10</v>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3" s="2">
         <v>11</v>
@@ -611,56 +605,56 @@
       <c r="N3" s="2">
         <v>10</v>
       </c>
-      <c r="O3" s="2">
-        <v>10</v>
+      <c r="O3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>10</v>
+      </c>
+      <c r="S3" s="2">
+        <v>4</v>
+      </c>
+      <c r="T3" s="2">
+        <v>11</v>
+      </c>
+      <c r="U3" s="2">
+        <v>10</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>1</v>
+      <c r="X3" s="2">
+        <v>10</v>
       </c>
       <c r="Y3" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="2">
-        <v>11</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>1</v>
+      <c r="AA3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>4</v>
       </c>
       <c r="AC3" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" s="2">
         <v>10</v>
       </c>
-      <c r="AE3" s="2">
-        <v>10</v>
+      <c r="AE3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>1</v>
@@ -668,100 +662,100 @@
     </row>
     <row r="4" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>11</v>
+      </c>
+      <c r="P4" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>10</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>11</v>
-      </c>
-      <c r="L4" s="2">
-        <v>11</v>
-      </c>
-      <c r="M4" s="2">
-        <v>11</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2">
-        <v>11</v>
-      </c>
-      <c r="S4" s="2">
-        <v>10</v>
-      </c>
-      <c r="T4" s="2">
-        <v>11</v>
-      </c>
       <c r="U4" s="2">
-        <v>10</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="V4" s="2">
+        <v>11</v>
       </c>
       <c r="W4" s="2">
-        <v>11</v>
-      </c>
-      <c r="X4" s="2">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>10</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>10</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AE4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>1</v>
+      <c r="AE4" s="2">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
